--- a/teaching/traditional_assets/database/data/bahamas/bahamas_drugs_biotechnology.xlsx
+++ b/teaching/traditional_assets/database/data/bahamas/bahamas_drugs_biotechnology.xlsx
@@ -591,25 +591,25 @@
         </is>
       </c>
       <c r="D2">
-        <v>-0.49</v>
+        <v>-0.61</v>
       </c>
       <c r="G2">
-        <v>-30.36697247706422</v>
+        <v>-146.7741935483871</v>
       </c>
       <c r="H2">
-        <v>-97.24770642201834</v>
+        <v>-429.0322580645162</v>
       </c>
       <c r="I2">
-        <v>-121.2090488164908</v>
+        <v>-395.9763829178406</v>
       </c>
       <c r="J2">
-        <v>-121.2090488164908</v>
+        <v>-395.9763829178406</v>
       </c>
       <c r="K2">
-        <v>-13.2</v>
+        <v>-12.4</v>
       </c>
       <c r="L2">
-        <v>-121.1009174311927</v>
+        <v>-400</v>
       </c>
       <c r="M2">
         <v>0</v>
@@ -633,73 +633,73 @@
         <v>0</v>
       </c>
       <c r="U2">
-        <v>7.14</v>
+        <v>5.37</v>
       </c>
       <c r="V2">
-        <v>0.04536213468869123</v>
+        <v>0.02799791449426486</v>
       </c>
       <c r="W2">
-        <v>-3.358778625954198</v>
+        <v>-2.194690265486726</v>
       </c>
       <c r="X2">
-        <v>0.1229511139825716</v>
+        <v>0.08328667581471393</v>
       </c>
       <c r="Y2">
-        <v>-3.48172973993677</v>
+        <v>-2.277976941301439</v>
       </c>
       <c r="Z2">
-        <v>-0.2977585650251976</v>
+        <v>-0.02744186943412057</v>
       </c>
       <c r="AA2">
-        <v>36.09103244366743</v>
+        <v>10.86633219902671</v>
       </c>
       <c r="AB2">
-        <v>0.1227076664197924</v>
+        <v>0.08324827837125108</v>
       </c>
       <c r="AC2">
-        <v>35.96832477724764</v>
+        <v>10.78308392065546</v>
       </c>
       <c r="AD2">
-        <v>0.214</v>
+        <v>0.092</v>
       </c>
       <c r="AE2">
-        <v>0.3639316049874973</v>
+        <v>0.1463393522652885</v>
       </c>
       <c r="AF2">
-        <v>0.5779316049874973</v>
+        <v>0.2383393522652885</v>
       </c>
       <c r="AG2">
-        <v>-6.562068395012503</v>
+        <v>-5.131660647734711</v>
       </c>
       <c r="AH2">
-        <v>0.003658305936253007</v>
+        <v>0.001241102964487164</v>
       </c>
       <c r="AI2">
-        <v>0.09279671673411986</v>
+        <v>0.0584402943646424</v>
       </c>
       <c r="AJ2">
-        <v>-0.04350409956692568</v>
+        <v>-0.02749079284436478</v>
       </c>
       <c r="AK2">
-        <v>7.194710869158614</v>
+        <v>3.972917079059825</v>
       </c>
       <c r="AL2">
-        <v>0.018</v>
+        <v>0.044</v>
       </c>
       <c r="AM2">
-        <v>-0.183</v>
+        <v>-0.02600000000000001</v>
       </c>
       <c r="AN2">
-        <v>-0.01628738869015907</v>
+        <v>-0.007217950729640672</v>
       </c>
       <c r="AO2">
-        <v>-744.4444444444446</v>
+        <v>-281.8181818181819</v>
       </c>
       <c r="AP2">
-        <v>0.4994343857989575</v>
+        <v>0.4026094969194031</v>
       </c>
       <c r="AQ2">
-        <v>73.22404371584699</v>
+        <v>476.9230769230768</v>
       </c>
     </row>
     <row r="3">
@@ -719,25 +719,25 @@
         </is>
       </c>
       <c r="D3">
-        <v>-0.49</v>
+        <v>-0.61</v>
       </c>
       <c r="G3">
-        <v>-30.36697247706422</v>
+        <v>-146.7741935483871</v>
       </c>
       <c r="H3">
-        <v>-97.24770642201834</v>
+        <v>-429.0322580645162</v>
       </c>
       <c r="I3">
-        <v>-121.2090488164908</v>
+        <v>-395.9763829178406</v>
       </c>
       <c r="J3">
-        <v>-121.2090488164908</v>
+        <v>-395.9763829178406</v>
       </c>
       <c r="K3">
-        <v>-13.2</v>
+        <v>-12.4</v>
       </c>
       <c r="L3">
-        <v>-121.1009174311927</v>
+        <v>-400</v>
       </c>
       <c r="M3">
         <v>-0</v>
@@ -761,73 +761,73 @@
         <v>0</v>
       </c>
       <c r="U3">
-        <v>7.14</v>
+        <v>5.37</v>
       </c>
       <c r="V3">
-        <v>0.04536213468869123</v>
+        <v>0.02799791449426486</v>
       </c>
       <c r="W3">
-        <v>-3.358778625954198</v>
+        <v>-2.194690265486726</v>
       </c>
       <c r="X3">
-        <v>0.1229511139825716</v>
+        <v>0.08328667581471393</v>
       </c>
       <c r="Y3">
-        <v>-3.48172973993677</v>
+        <v>-2.277976941301439</v>
       </c>
       <c r="Z3">
-        <v>-0.2977585650251976</v>
+        <v>-0.02744186943412057</v>
       </c>
       <c r="AA3">
-        <v>36.09103244366743</v>
+        <v>10.86633219902671</v>
       </c>
       <c r="AB3">
-        <v>0.1227076664197924</v>
+        <v>0.08324827837125108</v>
       </c>
       <c r="AC3">
-        <v>35.96832477724764</v>
+        <v>10.78308392065546</v>
       </c>
       <c r="AD3">
-        <v>0.214</v>
+        <v>0.092</v>
       </c>
       <c r="AE3">
-        <v>0.3639316049874973</v>
+        <v>0.1463393522652885</v>
       </c>
       <c r="AF3">
-        <v>0.5779316049874973</v>
+        <v>0.2383393522652885</v>
       </c>
       <c r="AG3">
-        <v>-6.562068395012503</v>
+        <v>-5.131660647734711</v>
       </c>
       <c r="AH3">
-        <v>0.003658305936253007</v>
+        <v>0.001241102964487164</v>
       </c>
       <c r="AI3">
-        <v>0.09279671673411986</v>
+        <v>0.0584402943646424</v>
       </c>
       <c r="AJ3">
-        <v>-0.04350409956692568</v>
+        <v>-0.02749079284436478</v>
       </c>
       <c r="AK3">
-        <v>7.194710869158614</v>
+        <v>3.972917079059825</v>
       </c>
       <c r="AL3">
-        <v>0.018</v>
+        <v>0.044</v>
       </c>
       <c r="AM3">
-        <v>-0.183</v>
+        <v>-0.02600000000000001</v>
       </c>
       <c r="AN3">
-        <v>-0.01628738869015907</v>
+        <v>-0.007217950729640672</v>
       </c>
       <c r="AO3">
-        <v>-744.4444444444446</v>
+        <v>-281.8181818181819</v>
       </c>
       <c r="AP3">
-        <v>0.4994343857989575</v>
+        <v>0.4026094969194031</v>
       </c>
       <c r="AQ3">
-        <v>73.22404371584699</v>
+        <v>476.9230769230768</v>
       </c>
     </row>
   </sheetData>
